--- a/NCU-PAYS-COR-JUNE 19 2024 (003).xlsx
+++ b/NCU-PAYS-COR-JUNE 19 2024 (003).xlsx
@@ -1,40 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\velorum\mis$\David Cummings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027CAFC2-9F38-40D7-B18E-593EF8BF2728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1350" windowWidth="27000" windowHeight="14100" xr2:uid="{6FA5DFC7-34B3-465D-930C-038F29949E25}"/>
+    <workbookView xWindow="1800" yWindow="1350" windowWidth="27000" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="PAYS MAY 30 2024 (2)" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="PAYS MAY 30 2024 (2)" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PAYS MAY 30 2024 (2)'!$B$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase">'PAYS MAY 30 2024 (2)'!$B$1:$E$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -47,27 +25,33 @@
     <t>Registration No</t>
   </si>
   <si>
+    <t>Registered - Sem. 1  "Y" or "N"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semester cost </t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Product_Code</t>
+  </si>
+  <si>
     <t>CurrentAcademicYear</t>
   </si>
   <si>
-    <t>Product_Code</t>
-  </si>
-  <si>
-    <t>Registered - Sem. 1  "Y" or "N"</t>
-  </si>
-  <si>
-    <t>GPA</t>
-  </si>
-  <si>
     <t>SLB-RLOS-131776</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
     <t>PAYS</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>SLB-RLOS-131580</t>
   </si>
   <si>
@@ -78,52 +62,46 @@
   </si>
   <si>
     <t>SLB-RLOS-123385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semester cost </t>
-  </si>
-  <si>
-    <t>semester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;J$&quot;* #,##0.00_-;\-&quot;J$&quot;* #,##0.00_-;_-&quot;J$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;J$&quot;* #,##0.00_-;-&quot;J$&quot;* #,##0.00_-;_-&quot;J$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,30 +142,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,14 +493,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FE804A-2ECA-4417-9B13-B517FFE8859A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
@@ -538,30 +510,30 @@
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" ht="31.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,12 +541,12 @@
         <v>101053070</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
         <v>204653.13</v>
       </c>
       <c r="E2">
@@ -584,7 +556,7 @@
         <v>2.06</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>2023</v>
@@ -595,12 +567,12 @@
         <v>117324779</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>170093.73</v>
       </c>
       <c r="E3">
@@ -610,7 +582,7 @@
         <v>3.84</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>2023</v>
@@ -621,12 +593,12 @@
         <v>110732120</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
         <v>217571.16</v>
       </c>
       <c r="E4">
@@ -636,7 +608,7 @@
         <v>3.58</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>2023</v>
@@ -647,12 +619,12 @@
         <v>100291708</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
         <v>181946.18</v>
       </c>
       <c r="E5">
@@ -670,12 +642,12 @@
         <v>101053070</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
         <v>30918.62</v>
       </c>
       <c r="E6">
@@ -693,10 +665,10 @@
         <v>117324779</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
       <c r="D7">
         <v>105062.44999999998</v>
@@ -716,10 +688,10 @@
         <v>110732120</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>516608.67999999993</v>
@@ -737,290 +709,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EBF4DADC9A3CB4982D9D7AC15C9A839" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c50079b5e71382e84451cbae3ac001d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="857a7140-1d08-45d8-b68d-7ea4738c9f74" xmlns:ns4="aa33bdf3-56e2-4ac4-af43-8ab0210c0f2a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c66f55ada05fa066a33580c679933ce7" ns3:_="" ns4:_="">
-    <xsd:import namespace="857a7140-1d08-45d8-b68d-7ea4738c9f74"/>
-    <xsd:import namespace="aa33bdf3-56e2-4ac4-af43-8ab0210c0f2a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="857a7140-1d08-45d8-b68d-7ea4738c9f74" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="20" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa33bdf3-56e2-4ac4-af43-8ab0210c0f2a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="857a7140-1d08-45d8-b68d-7ea4738c9f74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9A8BC79-14FD-4938-8749-F96D9C77632C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="857a7140-1d08-45d8-b68d-7ea4738c9f74"/>
-    <ds:schemaRef ds:uri="aa33bdf3-56e2-4ac4-af43-8ab0210c0f2a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C02F2092-2486-45D9-8E44-0782D57A74BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="857a7140-1d08-45d8-b68d-7ea4738c9f74"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="aa33bdf3-56e2-4ac4-af43-8ab0210c0f2a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1CFA00F-7E39-49F7-9469-DF1B64906ADA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/NCU-PAYS-COR-JUNE 19 2024 (003).xlsx
+++ b/NCU-PAYS-COR-JUNE 19 2024 (003).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1350" windowWidth="27000" windowHeight="14100"/>
+    <workbookView xWindow="1995" yWindow="3165" windowWidth="14400" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="PAYS MAY 30 2024 (2)" state="visible" r:id="rId4"/>
@@ -22,16 +22,16 @@
     <t>Customer_TRN</t>
   </si>
   <si>
-    <t>Registration No</t>
-  </si>
-  <si>
-    <t>Registered - Sem. 1  "Y" or "N"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semester cost </t>
-  </si>
-  <si>
-    <t>semester</t>
+    <t>RegistrationNo</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semester Cost </t>
+  </si>
+  <si>
+    <t>Semester</t>
   </si>
   <si>
     <t>GPA</t>
@@ -92,7 +92,7 @@
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
@@ -100,7 +100,7 @@
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
@@ -151,13 +151,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -496,7 +496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
@@ -511,28 +513,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -708,5 +710,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/NCU-PAYS-COR-JUNE 19 2024 (003).xlsx
+++ b/NCU-PAYS-COR-JUNE 19 2024 (003).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011" filterPrivacy="true"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="PAYS MAY 30 2024 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -35,10 +35,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;J$&quot;* #,##0.00_-;-&quot;J$&quot;* #,##0.00_-;_-&quot;J$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -402,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -418,7 +416,7 @@
         <v>Registered</v>
       </c>
       <c r="D1" t="str">
-        <v xml:space="preserve">Semester Cost </v>
+        <v>SemesterCost</v>
       </c>
       <c r="E1" t="str">
         <v>Semester</v>
@@ -464,7 +462,7 @@
         <v>117324779</v>
       </c>
       <c r="B3" t="str">
-        <v>SLB-RLOS-131580</v>
+        <v>SLB-RLOS-123385</v>
       </c>
       <c r="C3" t="str">
         <v>YES</v>
@@ -603,10 +601,62 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>100291708</v>
+      </c>
+      <c r="B9" t="str">
+        <v>SLB-RLOS-123385</v>
+      </c>
+      <c r="C9" t="str">
+        <v>YES</v>
+      </c>
+      <c r="D9">
+        <v>181946.18</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3.79</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>117324779</v>
+      </c>
+      <c r="B10" t="str">
+        <v>SLB-RLOS-131580</v>
+      </c>
+      <c r="C10" t="str">
+        <v>YES</v>
+      </c>
+      <c r="D10">
+        <v>105062.45</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/NCU-PAYS-COR-JUNE 19 2024 (003).xlsx
+++ b/NCU-PAYS-COR-JUNE 19 2024 (003).xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -462,7 +462,7 @@
         <v>117324779</v>
       </c>
       <c r="B3" t="str">
-        <v>SLB-RLOS-123385</v>
+        <v>SLB-RLOS-131580</v>
       </c>
       <c r="C3" t="str">
         <v>YES</v>
@@ -534,16 +534,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>101053070</v>
+        <v>110732120</v>
       </c>
       <c r="B6" t="str">
-        <v>SLB-RLOS-131776</v>
+        <v>SLB-RLOS-129449</v>
       </c>
       <c r="C6" t="str">
         <v>YES</v>
       </c>
       <c r="D6">
-        <v>30918.62</v>
+        <v>516608.67999999993</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -578,85 +578,36 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
-        <v>110732120</v>
-      </c>
-      <c r="B8" t="str">
-        <v>SLB-RLOS-129449</v>
-      </c>
-      <c r="C8" t="str">
-        <v>YES</v>
-      </c>
-      <c r="D8">
-        <v>516608.67999999993</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2023</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>100291708</v>
+      <c r="A9">
+        <v>127645999</v>
       </c>
       <c r="B9" t="str">
-        <v>SLB-RLOS-123385</v>
+        <v>SLB-RLOS-141000</v>
       </c>
       <c r="C9" t="str">
         <v>YES</v>
       </c>
       <c r="D9">
-        <v>181946.18</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3.79</v>
+        <v>0</v>
       </c>
       <c r="G9" t="str">
         <v/>
       </c>
       <c r="H9">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>117324779</v>
-      </c>
-      <c r="B10" t="str">
-        <v>SLB-RLOS-131580</v>
-      </c>
-      <c r="C10" t="str">
-        <v>YES</v>
-      </c>
-      <c r="D10">
-        <v>105062.45</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10">
         <v>2023</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H9"/>
   </ignoredErrors>
 </worksheet>
 </file>